--- a/分布式爬虫架构.xlsx
+++ b/分布式爬虫架构.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\php\xampp72\htdocs\distributedcrawler\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8280" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8280" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="爬虫管理系统" sheetId="1" r:id="rId1"/>
-    <sheet name="任务调度系统" sheetId="2" r:id="rId2"/>
-    <sheet name="client端" sheetId="3" r:id="rId3"/>
+    <sheet name="后台管理系统" sheetId="1" r:id="rId1"/>
+    <sheet name="架构图" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,9 +24,58 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <r>
+      <t>master node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主要功能</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于Hyperf的微服务主要功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、取任务接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、清理失败和过期任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、回设任务状态接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、保存抓取数据接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、接收slave node的注册请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、向slave node发送指令，例如更新代码或发送最新配置等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,6 +88,27 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -66,8 +135,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -154,7 +232,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>爬虫管理系统</a:t>
+            <a:t>后台管理系统</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
@@ -177,7 +255,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Laravel</a:t>
+            <a:t>Laravel6.0</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
@@ -2205,6 +2283,381 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直接箭头连接符 38"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="962025" y="2343150"/>
+          <a:ext cx="0" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="矩形 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="3000374"/>
+          <a:ext cx="314325" cy="1990725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>各种图表，仪表盘</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直接箭头连接符 40"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9944100" y="2352675"/>
+          <a:ext cx="0" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="矩形 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9782175" y="3009899"/>
+          <a:ext cx="314325" cy="2276476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>添加、修改、删除</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>使用者</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直接箭头连接符 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10553700" y="2362200"/>
+          <a:ext cx="0" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="矩形 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10391775" y="3019424"/>
+          <a:ext cx="314325" cy="1990725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>设定每名使用者的权限</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2212,16 +2665,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2230,8 +2683,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2505075" y="1114426"/>
-          <a:ext cx="2667000" cy="647700"/>
+          <a:off x="5153025" y="3333751"/>
+          <a:ext cx="1733550" cy="866774"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2265,7 +2718,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -2294,7 +2747,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>fastswoole</a:t>
+            <a:t>Hyperf</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
@@ -2337,38 +2790,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>的自研</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>API</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>框架</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
+            <a:t>的微服务</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2376,28 +2799,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>176213</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="5" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2914650" y="1781175"/>
-          <a:ext cx="4763" cy="828676"/>
+          <a:off x="2543175" y="4010025"/>
+          <a:ext cx="2609850" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2425,100 +2846,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="矩形 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2762250" y="2609851"/>
-          <a:ext cx="314325" cy="1047750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>取任务接口</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>395288</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="8" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3824288" y="1762126"/>
-          <a:ext cx="14287" cy="828674"/>
+        <a:xfrm flipV="1">
+          <a:off x="6877050" y="3590925"/>
+          <a:ext cx="1828800" cy="19051"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2546,87 +2893,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="矩形 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3667125" y="2590800"/>
-          <a:ext cx="314325" cy="1619250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>回设任务状态接口</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>623888</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>638176</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2635,8 +2911,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4738688" y="1743075"/>
-          <a:ext cx="14288" cy="838200"/>
+          <a:off x="6867525" y="4010025"/>
+          <a:ext cx="1819276" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2664,87 +2940,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="矩形 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4572000" y="2571750"/>
-          <a:ext cx="314325" cy="1619250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>保存抓取数据接口</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2753,8 +2958,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6591300" y="1095375"/>
-          <a:ext cx="2667000" cy="647700"/>
+          <a:off x="5095875" y="838200"/>
+          <a:ext cx="1743075" cy="933450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2788,7 +2993,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -2817,7 +3022,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>master</a:t>
+            <a:t>master node</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
@@ -2891,28 +3096,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>80963</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="18" name="直接箭头连接符 17"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="19" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6934200" y="1743075"/>
-          <a:ext cx="4763" cy="828674"/>
+        <a:xfrm flipH="1">
+          <a:off x="5419725" y="1771650"/>
+          <a:ext cx="9525" cy="1590675"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2940,99 +3143,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="矩形 18"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6781800" y="2571749"/>
-          <a:ext cx="314325" cy="1743075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>清理失败和过期任务</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>280988</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>214315</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>280988</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="20" name="直接箭头连接符 19"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="21" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7824788" y="1743075"/>
-          <a:ext cx="0" cy="828675"/>
+        <a:xfrm flipH="1">
+          <a:off x="5695950" y="4191000"/>
+          <a:ext cx="4765" cy="1666875"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3060,99 +3190,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="矩形 20"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7667625" y="2571750"/>
-          <a:ext cx="314325" cy="2105025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>接收远程机器的注册请求</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>461963</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="22" name="直接箭头连接符 21"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="23" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8686800" y="1752600"/>
-          <a:ext cx="4763" cy="809625"/>
+        <a:xfrm flipH="1">
+          <a:off x="2524125" y="3524250"/>
+          <a:ext cx="2619375" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3181,101 +3238,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="矩形 22"/>
+        <xdr:cNvPr id="16" name="矩形 15"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8534400" y="2562225"/>
-          <a:ext cx="314325" cy="4505325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>向远程机器发送指令，例如更新代码或发送最新配置等</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矩形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2466975" y="981075"/>
-          <a:ext cx="2667000" cy="647700"/>
+          <a:off x="8696325" y="3295650"/>
+          <a:ext cx="1819275" cy="942976"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3309,7 +3290,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -3338,7 +3319,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>client</a:t>
+            <a:t>slave node</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
@@ -3405,6 +3386,1266 @@
             </a:rPr>
             <a:t>协议的常驻程序</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="矩形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="847725"/>
+          <a:ext cx="1590675" cy="904876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>后台管理系统</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直接箭头连接符 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2419350" y="1047750"/>
+          <a:ext cx="2686050" cy="19051"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="矩形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2790824" y="914400"/>
+          <a:ext cx="1914525" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>用户通过界面发送操作指令</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直接箭头连接符 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2409825" y="1438275"/>
+          <a:ext cx="2695575" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="矩形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3390901" y="1314450"/>
+          <a:ext cx="704850" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>response</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="矩形 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="3343275"/>
+          <a:ext cx="1733550" cy="866774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Redis</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="矩形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5105400" y="5829300"/>
+          <a:ext cx="1733550" cy="866774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>MongoDB</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="矩形 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="4410075"/>
+          <a:ext cx="314325" cy="1209675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>存储爬取结果</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="矩形 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5267325" y="2009775"/>
+          <a:ext cx="314325" cy="895349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>发送任务</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="矩形 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3009900" y="3390901"/>
+          <a:ext cx="1695450" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>存储，删除，更改任务</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="矩形 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3276600" y="3876675"/>
+          <a:ext cx="1190625" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>读取后返回任务</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="矩形 49"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7439025" y="3457575"/>
+          <a:ext cx="752475" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>发送任务</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="矩形 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7296150" y="3857625"/>
+          <a:ext cx="1038225" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>返回爬取结果</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直接箭头连接符 52"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="333375" y="6238875"/>
+          <a:ext cx="4772026" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直接箭头连接符 54"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="371476" y="1314450"/>
+          <a:ext cx="9524" cy="4933951"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直接箭头连接符 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="17" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="361950" y="1300163"/>
+          <a:ext cx="476250" cy="52388"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676276</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="矩形 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047876" y="6105526"/>
+          <a:ext cx="1571624" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>读取数据供界面使用</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3679,7 +4920,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3692,32 +4933,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="Q4:Q13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="17" max="17" width="56.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="17:17" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="Q4" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="17:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="17:17" x14ac:dyDescent="0.15">
+      <c r="Q6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="17:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="17:17" x14ac:dyDescent="0.15">
+      <c r="Q10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="17:17" x14ac:dyDescent="0.15">
+      <c r="Q11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="17:17" x14ac:dyDescent="0.15">
+      <c r="Q12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="17:17" x14ac:dyDescent="0.15">
+      <c r="Q13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/分布式爬虫架构.xlsx
+++ b/分布式爬虫架构.xlsx
@@ -25,23 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <r>
-      <t>master node</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>主要功能</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>基于Hyperf的微服务主要功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,11 +47,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2、接收slave node的注册请求</t>
+    <r>
+      <t>master node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主要功能</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3、向slave node发送指令，例如更新代码或发送最新配置等</t>
+    <t>1、启动Swoole Timer定时任务来向微服务获取最新配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>work node主要功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、接收work node的注册请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、向work node发送指令，例如更新代码或发送最新配置等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2940,16 +2948,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2958,8 +2966,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5095875" y="838200"/>
-          <a:ext cx="1743075" cy="933450"/>
+          <a:off x="8705850" y="809625"/>
+          <a:ext cx="1743075" cy="1066800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3076,7 +3084,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>tcp</a:t>
+            <a:t>Hyperf</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
@@ -3087,7 +3095,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>协议的常驻程序</a:t>
+            <a:t>框架</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3319,7 +3327,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>slave node</a:t>
+            <a:t>work node</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
@@ -4043,15 +4051,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4060,7 +4068,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5267325" y="2009775"/>
+          <a:off x="5257800" y="2162175"/>
           <a:ext cx="314325" cy="895349"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4105,7 +4113,7 @@
               </a:solidFill>
               <a:effectLst/>
             </a:rPr>
-            <a:t>发送任务</a:t>
+            <a:t>调用服务</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN">
             <a:solidFill>
@@ -4639,6 +4647,656 @@
               <a:effectLst/>
             </a:rPr>
             <a:t>读取数据供界面使用</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="矩形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5114925" y="866775"/>
+          <a:ext cx="1743075" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>API Gateway</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>基于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Swoole</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Hyperf</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>框架</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直接箭头连接符 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5981700" y="1933575"/>
+          <a:ext cx="9525" cy="1590675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="矩形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5829300" y="2162175"/>
+          <a:ext cx="314325" cy="895349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>调用服务</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直接箭头连接符 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6572250" y="1914525"/>
+          <a:ext cx="9525" cy="1590675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="矩形 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6419850" y="2171700"/>
+          <a:ext cx="314325" cy="895349"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>调用服务</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直接箭头连接符 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9039225" y="1866901"/>
+          <a:ext cx="0" cy="1619249"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="矩形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8886825" y="2276475"/>
+          <a:ext cx="314325" cy="866776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>注册节点</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直接箭头连接符 38"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9877425" y="1866900"/>
+          <a:ext cx="19050" cy="1590675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="矩形 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9734550" y="2257425"/>
+          <a:ext cx="314325" cy="866776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>发送指令</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN">
             <a:solidFill>
@@ -4933,10 +5591,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="Q4:Q13"/>
+  <dimension ref="Q4:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4946,42 +5604,52 @@
   <sheetData>
     <row r="4" spans="17:17" ht="15.75" x14ac:dyDescent="0.15">
       <c r="Q4" s="3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="17:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="17:17" x14ac:dyDescent="0.15">
       <c r="Q6" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="17:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="17:17" x14ac:dyDescent="0.15">
-      <c r="Q10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="17:17" x14ac:dyDescent="0.15">
-      <c r="Q11" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="17:17" x14ac:dyDescent="0.15">
       <c r="Q12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="17:17" x14ac:dyDescent="0.15">
+      <c r="Q13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="17:17" x14ac:dyDescent="0.15">
+      <c r="Q14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="17:17" x14ac:dyDescent="0.15">
+      <c r="Q15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="17:17" x14ac:dyDescent="0.15">
-      <c r="Q13" t="s">
-        <v>5</v>
+    <row r="20" spans="17:17" x14ac:dyDescent="0.15">
+      <c r="Q20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="17:17" x14ac:dyDescent="0.15">
+      <c r="Q21" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
